--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324953.9067354489</v>
+        <v>319233.1861841196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2989156.853416513</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20349704.61069183</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4821717.092236059</v>
+        <v>4813416.780476123</v>
       </c>
     </row>
     <row r="11">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.61706312961832</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1303,40 +1303,40 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>23.19571111787229</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,67 +1370,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="U11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="V11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T12" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U12" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>23.19571111787229</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1573,7 +1573,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,37 +1701,37 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>25.62029119463083</v>
@@ -1740,7 +1740,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23.19571111787227</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J16" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,52 +1853,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H17" t="n">
+      <c r="S17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I17" t="n">
+      <c r="T17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G18" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,62 +1999,62 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="R19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>51.86683734433478</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>36.10479393315186</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.1746589509483</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>91.10663889794492</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,16 +2606,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>3.265316057196634</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.98580820205339</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>29.85921600351671</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>142.3851395808584</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>215.3939976830282</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>215.3939976830282</v>
@@ -3086,7 +3086,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.3224003077961</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>66.80154844887949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.7283339446664</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>141.8677101808313</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>136.4622218807616</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>47.02492433367367</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.7190331592112</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>118.4702779777132</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>215.3939976830282</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>166.0441028249983</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>177.9933921796108</v>
       </c>
       <c r="X41" t="n">
         <v>213.4242636173429</v>
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.635369808021</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>137.033973620486</v>
       </c>
     </row>
     <row r="43">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.87777657221105</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>65.87777657221105</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.87777657221105</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>91.75685858698967</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>65.87777657221105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>99.73223474306219</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.97407071350496</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F8" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I8" t="n">
         <v>2.049623295570466</v>
@@ -4805,49 +4805,49 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L8" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N8" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O8" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>66.51046739551762</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>40.631385380739</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>14.75230336596039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F9" t="n">
-        <v>80.44100199269204</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G9" t="n">
-        <v>54.56191997791342</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H9" t="n">
-        <v>28.6828379631348</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>2.049623295570466</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N9" t="n">
-        <v>26.38889993046976</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O9" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G10" t="n">
-        <v>73.85315272828358</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H10" t="n">
-        <v>73.85315272828358</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I10" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>24.54405948333093</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4972,40 +4972,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
         <v>2.049623295570466</v>
@@ -5042,13 +5042,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
         <v>77.1170764958388</v>
@@ -5066,25 +5066,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U11" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V11" t="n">
-        <v>76.6020827637447</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W11" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X11" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M12" t="n">
         <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
         <v>77.1170764958388</v>
@@ -5148,19 +5148,19 @@
         <v>50.72300074896609</v>
       </c>
       <c r="T12" t="n">
-        <v>24.84391873418747</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y12" t="n">
         <v>2.049623295570466</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="C13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="D13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="E13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="F13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="G13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="H13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="I13" t="n">
-        <v>50.42314149810954</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="J13" t="n">
         <v>24.54405948333093</v>
@@ -5203,10 +5203,10 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>27.41371157825499</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M13" t="n">
-        <v>52.77779986093951</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N13" t="n">
         <v>78.14188814362404</v>
@@ -5221,28 +5221,28 @@
         <v>73.85315272828358</v>
       </c>
       <c r="R13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="T13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="U13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="V13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="W13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="X13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.85315272828358</v>
+        <v>47.97407071350496</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C14" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D14" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E14" t="n">
+        <v>79.68686933990632</v>
+      </c>
+      <c r="F14" t="n">
+        <v>79.68686933990632</v>
+      </c>
+      <c r="G14" t="n">
+        <v>53.80778732512771</v>
+      </c>
+      <c r="H14" t="n">
         <v>27.92870531034908</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.049623295570466</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.049623295570466</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5282,46 +5282,46 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N14" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O14" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X14" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>28.6828379631348</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
         <v>102.4811647785233</v>
@@ -5379,28 +5379,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S15" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T15" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="I16" t="n">
-        <v>50.42314149810954</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="J16" t="n">
-        <v>24.54405948333093</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5446,40 +5446,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>99.73223474306218</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.85315272828356</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.85315272828356</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
         <v>2.207202020825291</v>
@@ -5522,43 +5522,43 @@
         <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S17" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T17" t="n">
-        <v>100.2684856730375</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5577,16 +5577,16 @@
         <v>82.49138865710684</v>
       </c>
       <c r="E18" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F18" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G18" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I18" t="n">
         <v>2.207202020825291</v>
@@ -5595,19 +5595,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N18" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
         <v>2.207202020825291</v>
@@ -5689,34 +5689,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S19" t="n">
-        <v>80.62014129470579</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="T19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="V19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="W19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="X19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>354.5646924921614</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y21" t="n">
-        <v>146.8043937272075</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6032,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6075,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>395.2567788952347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>395.2567788952347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>395.2567788952347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>395.2567788952347</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="25">
@@ -6163,31 +6163,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
         <v>829.5248650203655</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>46.53953523349898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>46.53953523349898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6406,16 +6406,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>482.5317333192617</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>264.9620386899402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>264.9620386899402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>264.9620386899402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>47.39234406061874</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
-        <v>23.55055379931807</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L29" t="n">
-        <v>203.6264053839766</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M29" t="n">
-        <v>416.8664630901746</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>622.7209852974139</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>771.915935440062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>851.4843753638859</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>700.1014279485831</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>700.1014279485831</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>700.1014279485831</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>700.1014279485831</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V29" t="n">
-        <v>700.1014279485831</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W29" t="n">
-        <v>700.1014279485831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>700.1014279485831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>700.1014279485831</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.23151981464226</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C30" t="n">
-        <v>17.23151981464226</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>142.5890798724797</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>142.5890798724797</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>183.0578391930369</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>396.2978968992348</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>609.5379546054328</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>861.5759907321129</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>669.9406037026066</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>452.3709090732851</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>234.8012144439637</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W30" t="n">
-        <v>17.23151981464226</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X30" t="n">
-        <v>17.23151981464226</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.23151981464226</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>44.54564482235524</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>83.73368301457742</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4245336700137</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="C32" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="D32" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E32" t="n">
         <v>17.23151981464226</v>
@@ -6725,25 +6725,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>669.9406037026066</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>452.3709090732851</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="U32" t="n">
-        <v>234.8012144439637</v>
+        <v>426.43660147347</v>
       </c>
       <c r="V32" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="W32" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="X32" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>625.8843421475201</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="C33" t="n">
-        <v>451.4313128663931</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="D33" t="n">
-        <v>302.4969032051418</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E33" t="n">
-        <v>302.4969032051418</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F33" t="n">
-        <v>155.9623452320268</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="G33" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I33" t="n">
         <v>17.23151981464226</v>
@@ -6783,13 +6783,13 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>355.8291375786776</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M33" t="n">
-        <v>569.0691952848756</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N33" t="n">
-        <v>569.0691952848756</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
         <v>609.5379546054328</v>
@@ -6810,19 +6810,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>861.5759907321129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V33" t="n">
-        <v>861.5759907321129</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W33" t="n">
-        <v>861.5759907321129</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="X33" t="n">
-        <v>861.5759907321129</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y33" t="n">
-        <v>794.0996791675882</v>
+        <v>208.8669068441485</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>843.840338567656</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>749.5381364296027</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
         <v>727.0437002418422</v>
@@ -6889,19 +6889,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>669.9406037026066</v>
+      </c>
+      <c r="C35" t="n">
+        <v>669.9406037026066</v>
+      </c>
+      <c r="D35" t="n">
+        <v>452.3709090732851</v>
+      </c>
+      <c r="E35" t="n">
+        <v>452.3709090732851</v>
+      </c>
+      <c r="F35" t="n">
         <v>234.8012144439637</v>
-      </c>
-      <c r="C35" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="E35" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="F35" t="n">
-        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
         <v>17.23151981464226</v>
@@ -6944,43 +6944,43 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>622.7209852974139</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>633.9146807345644</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>633.9146807345644</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>633.9146807345644</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>416.3449861052429</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X35" t="n">
-        <v>416.3449861052429</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="Y35" t="n">
-        <v>416.3449861052429</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>334.9852664501443</v>
+        <v>506.165667940406</v>
       </c>
       <c r="C36" t="n">
-        <v>160.5322371690173</v>
+        <v>506.165667940406</v>
       </c>
       <c r="D36" t="n">
-        <v>17.23151981464226</v>
+        <v>506.165667940406</v>
       </c>
       <c r="E36" t="n">
-        <v>17.23151981464226</v>
+        <v>506.165667940406</v>
       </c>
       <c r="F36" t="n">
-        <v>17.23151981464226</v>
+        <v>359.631109967291</v>
       </c>
       <c r="G36" t="n">
-        <v>17.23151981464226</v>
+        <v>220.9002845499064</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I36" t="n">
         <v>17.23151981464226</v>
@@ -7023,43 +7023,43 @@
         <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>435.095875319717</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N36" t="n">
-        <v>648.335933025915</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="O36" t="n">
-        <v>861.5759907321129</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="P36" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U36" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V36" t="n">
-        <v>760.4064612849986</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W36" t="n">
-        <v>542.8367666556771</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X36" t="n">
-        <v>334.9852664501443</v>
+        <v>506.165667940406</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.9852664501443</v>
+        <v>506.165667940406</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
         <v>17.23151981464226</v>
@@ -7114,31 +7114,31 @@
         <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.763810304913</v>
+        <v>64.73144338400959</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>64.73144338400959</v>
       </c>
       <c r="S37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.763810304913</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C38" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
         <v>17.23151981464226</v>
@@ -7181,13 +7181,13 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P38" t="n">
         <v>861.5759907321129</v>
@@ -7202,22 +7202,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="V38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="W38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="Y38" t="n">
-        <v>861.5759907321129</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>470.5889515534603</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>296.1359222723333</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>176.4689748200978</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
         <v>17.23151981464226</v>
@@ -7257,19 +7257,19 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786776</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="M39" t="n">
-        <v>569.0691952848756</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="N39" t="n">
-        <v>609.5379546054328</v>
+        <v>678.932513118762</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>688.1586461827818</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U39" t="n">
-        <v>688.1586461827818</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V39" t="n">
-        <v>688.1586461827818</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W39" t="n">
-        <v>470.5889515534603</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X39" t="n">
-        <v>470.5889515534603</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y39" t="n">
-        <v>470.5889515534603</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7363,10 +7363,10 @@
         <v>151.763810304913</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23151981464226</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W40" t="n">
         <v>17.23151981464226</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>412.4453105812599</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>196.8652463213176</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>196.8652463213176</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0889470003098</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L41" t="n">
         <v>197.6975058462639</v>
@@ -7448,13 +7448,13 @@
         <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>843.6054391011446</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="X41" t="n">
-        <v>628.0253748412023</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y41" t="n">
-        <v>412.4453105812599</v>
+        <v>232.6540053493298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.07394108938743</v>
+        <v>499.6988350372212</v>
       </c>
       <c r="C42" t="n">
-        <v>17.07394108938743</v>
+        <v>325.2458057560942</v>
       </c>
       <c r="D42" t="n">
-        <v>17.07394108938743</v>
+        <v>176.3113960948429</v>
       </c>
       <c r="E42" t="n">
         <v>17.07394108938743</v>
@@ -7494,13 +7494,13 @@
         <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>353.7215221283943</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="M42" t="n">
-        <v>565.0115431095638</v>
+        <v>179.0789763803525</v>
       </c>
       <c r="N42" t="n">
-        <v>601.6590183426915</v>
+        <v>390.368997361522</v>
       </c>
       <c r="O42" t="n">
         <v>601.6590183426915</v>
@@ -7521,19 +7521,19 @@
         <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>656.085569814805</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>440.5055055548626</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W42" t="n">
-        <v>224.9254412949203</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X42" t="n">
-        <v>17.07394108938743</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.07394108938743</v>
+        <v>499.6988350372212</v>
       </c>
     </row>
     <row r="43">
@@ -7597,13 +7597,13 @@
         <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
         <v>17.07394108938743</v>
@@ -8219,19 +8219,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,16 +8301,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
         <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
         <v>261.3867061646181</v>
@@ -8699,7 +8699,7 @@
         <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>255.7185026163176</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>163.1395076939139</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
         <v>159.5946986089611</v>
@@ -8930,19 +8930,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>255.9665244219036</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>156.9620032779641</v>
@@ -9021,7 +9021,7 @@
         <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9170,16 +9170,16 @@
         <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869682</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10197,19 +10197,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>183.0115685892478</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>346.7357097663615</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>357.9902421274727</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>183.4737791116739</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,16 +10592,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>373.6931947635578</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10671,7 +10671,7 @@
         <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>348.8252438198737</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
@@ -10680,10 +10680,10 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>270.570103662358</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0675319949004</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>249.5274280969312</v>
       </c>
       <c r="M39" t="n">
         <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>172.2192467505628</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L41" t="n">
-        <v>314.1588986527692</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>443.7704968446156</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>179.1516856726524</v>
       </c>
       <c r="N42" t="n">
-        <v>168.3593638339673</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -22790,7 +22790,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>240.7285897782182</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22872,16 +22872,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>238.7699996381505</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>145.4246268742279</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>132.254763809386</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,13 +23258,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>339.6526005763767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,7 +23273,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>316.9084496315363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23306,19 +23306,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>200.5294970799005</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23388,10 +23388,10 @@
         <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
-        <v>174.5444375001908</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U12" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>132.254763809386</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>67.73888892204195</v>
+        <v>70.16346899880048</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>359.3640175880309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2557545470806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>137.2934646714637</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23589,13 +23589,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>90.41568307852349</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S15" t="n">
         <v>146.062879909207</v>
@@ -23628,7 +23628,7 @@
         <v>174.5444375001908</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>132.254763809386</v>
+        <v>132.8841224430275</v>
       </c>
       <c r="J16" t="n">
         <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>392.5654507069698</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G18" t="n">
-        <v>109.7534919028945</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23929,19 +23929,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>198.8573347266919</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>114.6663463055326</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>76.13065030334459</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0.4704215044526165</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>134.8347431830299</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,16 +24494,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.8305335069347</v>
+        <v>211.2321227688388</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>110.3577089611572</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167.3398439804523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>385.4435215116183</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>30.32335940745733</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24807,19 +24807,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>10.44569553561035</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>17.40658946639704</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>36.30098547789137</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,13 +24917,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>192.2113369130506</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>19.30103642703409</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>7.701851881103124</v>
@@ -24974,7 +24974,7 @@
         <v>35.95165522480826</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>11.91304392870033</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>138.8811473284249</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>203.0055077188142</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,7 +25205,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>180.0120675192578</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,25 +25233,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>5.577355383807486</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>69.3107633227159</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25354,13 +25354,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.0148085042693</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
         <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>139.2890439376547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25406,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>124.0808044327389</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>33.37681640492011</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>28.97478758692554</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>10.44569553561035</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>36.30098547789137</v>
@@ -25603,13 +25603,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,16 +25640,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>44.43178674540761</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>171.2475765378022</v>
       </c>
       <c r="X41" t="n">
         <v>156.3068370611261</v>
@@ -25707,13 +25707,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>30.30601227295384</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>68.64872215681834</v>
       </c>
     </row>
     <row r="43">
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350064.5328762545</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350064.5328762545</v>
+        <v>350064.5328762547</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488505.1665306334</v>
+        <v>507028.2310008513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488505.1665306334</v>
+        <v>488505.1665306332</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488505.1665306334</v>
+        <v>488505.1665306333</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487081.0800200351</v>
+        <v>487081.0800200352</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>74597.63547237263</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
         <v>74597.63547237263</v>
@@ -26323,13 +26323,13 @@
         <v>74597.63547237263</v>
       </c>
       <c r="F2" t="n">
-        <v>74597.63547237263</v>
+        <v>74597.63547237261</v>
       </c>
       <c r="G2" t="n">
         <v>74945.90033124233</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
@@ -26338,22 +26338,22 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="L2" t="n">
+        <v>104062.147631765</v>
+      </c>
+      <c r="M2" t="n">
         <v>104062.1476317649</v>
-      </c>
-      <c r="L2" t="n">
-        <v>104062.1476317649</v>
-      </c>
-      <c r="M2" t="n">
-        <v>104062.147631765</v>
       </c>
       <c r="N2" t="n">
         <v>104062.147631765</v>
       </c>
       <c r="O2" t="n">
-        <v>103759.0573236672</v>
+        <v>103759.0573236673</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8277.165051769143</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>22413.55190523866</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>22413.55190523866</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="E4" t="n">
-        <v>22413.55190523866</v>
+        <v>23004.80940248713</v>
       </c>
       <c r="F4" t="n">
-        <v>22413.55190523866</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="G4" t="n">
-        <v>22521.71332020263</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="H4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="J4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>31564.41293878062</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>31564.41293878062</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="M4" t="n">
-        <v>31564.41293878061</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="N4" t="n">
-        <v>31564.41293878061</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="O4" t="n">
-        <v>31470.28148752794</v>
+        <v>32297.06158368185</v>
       </c>
       <c r="P4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26494,7 +26494,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="K5" t="n">
-        <v>13095.95505912812</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15303.88643728934</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>8721.604810731267</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>16998.76986250042</v>
+        <v>8449.081311463771</v>
       </c>
       <c r="E6" t="n">
-        <v>50626.36986250042</v>
+        <v>50035.11236525194</v>
       </c>
       <c r="F6" t="n">
-        <v>50626.36986250042</v>
+        <v>50035.11236525192</v>
       </c>
       <c r="G6" t="n">
-        <v>50206.83891381912</v>
+        <v>49612.76865095562</v>
       </c>
       <c r="H6" t="n">
-        <v>2978.202415939202</v>
+        <v>2117.134455014995</v>
       </c>
       <c r="I6" t="n">
-        <v>60561.98955827089</v>
+        <v>59700.92159734667</v>
       </c>
       <c r="J6" t="n">
-        <v>60561.98955827089</v>
+        <v>59700.92159734666</v>
       </c>
       <c r="K6" t="n">
-        <v>59401.77963385619</v>
+        <v>59700.92159734665</v>
       </c>
       <c r="L6" t="n">
-        <v>59401.7796338562</v>
+        <v>58572.55162492802</v>
       </c>
       <c r="M6" t="n">
-        <v>59401.77963385622</v>
+        <v>58572.55162492799</v>
       </c>
       <c r="N6" t="n">
-        <v>59401.77963385623</v>
+        <v>58572.55162492803</v>
       </c>
       <c r="O6" t="n">
-        <v>59312.58060820486</v>
+        <v>58485.80051205097</v>
       </c>
       <c r="P6" t="n">
-        <v>48931.48643728937</v>
+        <v>48378.33248915085</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>215.3939976830282</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,7 +35343,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
         <v>25.62029119463083</v>
@@ -35419,7 +35419,7 @@
         <v>24.58512791403969</v>
       </c>
       <c r="N11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>25.62029119463083</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>25.62029119463083</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M13" t="n">
         <v>25.62029119463083</v>
@@ -35650,19 +35650,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>25.62029119463083</v>
@@ -35741,7 +35741,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N17" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36917,19 +36917,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>40.87753466722953</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>40.87753466722953</v>
+      </c>
+      <c r="N33" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>40.87753466722948</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,16 +37312,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>143.5949833418711</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>206.6912098978554</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>215.3939976830282</v>
@@ -37400,10 +37400,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>136.5956962480277</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>117.7212987676277</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>215.3939976830282</v>
+        <v>110.973048317057</v>
       </c>
       <c r="M39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>40.87753466722948</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L41" t="n">
-        <v>78.39248368278189</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>213.4242636173429</v>
@@ -37862,16 +37862,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>37.01765175063407</v>
+      </c>
+      <c r="N42" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="N42" t="n">
-        <v>37.01765175063403</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
